--- a/Material_ventas.xlsx
+++ b/Material_ventas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,18 +510,6 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -535,18 +523,56 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bomba de calor acs 200l Sin serpentín</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Estaciones de recarga rápida compactos Circutor RAPTION 50 EVO CCS2 T2S32</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Material_ventas.xlsx
+++ b/Material_ventas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,18 +536,6 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -561,18 +549,56 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bomba de calor acs 200l Sin serpentín</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Estaciones de recarga rápida compactos Circutor RAPTION 50 EVO CCS2 T2S32</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Material_ventas.xlsx
+++ b/Material_ventas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,18 +562,6 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -587,18 +575,56 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bomba de calor acs 200l Sin serpentín</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Estaciones de recarga rápida compactos Circutor RAPTION 50 EVO CCS2 T2S32</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Material_ventas.xlsx
+++ b/Material_ventas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,18 +588,6 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -613,18 +601,106 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bomba de calor acs 200l Sin serpentín</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Estaciones de recarga rápida compactos Circutor RAPTION 50 EVO CCS2 T2S32</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Inversor híbrido monofásico SUN-6k-SG05LP1-EU</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BATERÍA LITIO SIGEN ENERGY SIGENSTOR 8,0KW</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Material_ventas.xlsx
+++ b/Material_ventas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,18 +614,6 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -639,18 +627,6 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -664,18 +640,6 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -689,18 +653,106 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bomba de calor acs 200l Sin serpentín</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Estaciones de recarga rápida compactos Circutor RAPTION 50 EVO CCS2 T2S32</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Inversor híbrido monofásico SUN-6k-SG05LP1-EU</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BATERÍA LITIO SIGEN ENERGY SIGENSTOR 8,0KW</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Material_ventas.xlsx
+++ b/Material_ventas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,18 +666,6 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -691,18 +679,6 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -716,18 +692,6 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -741,18 +705,106 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bomba de calor acs 200l Sin serpentín</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Estaciones de recarga rápida compactos Circutor RAPTION 50 EVO CCS2 T2S32</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Inversor híbrido monofásico SUN-6k-SG05LP1-EU</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>BATERÍA LITIO SIGEN ENERGY SIGENSTOR 8,0KW</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Material_ventas.xlsx
+++ b/Material_ventas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,18 +718,6 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -743,18 +731,6 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -768,18 +744,6 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -793,18 +757,31 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Pedido 1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>LEG</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Material_ventas.xlsx
+++ b/Material_ventas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,20 +764,32 @@
           <t>Pedido 1</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
+        <is>
+          <t>LEG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Pedido 1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
         <is>
           <t>LEG</t>
         </is>

--- a/Material_ventas.xlsx
+++ b/Material_ventas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,20 +776,32 @@
           <t>Pedido 1</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
+        <is>
+          <t>LEG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Pedido 1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
         <is>
           <t>LEG</t>
         </is>

--- a/Material_ventas.xlsx
+++ b/Material_ventas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,20 +788,32 @@
           <t>Pedido 1</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
+        <is>
+          <t>LEG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Pedido 1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
         <is>
           <t>LEG</t>
         </is>

--- a/Material_ventas.xlsx
+++ b/Material_ventas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,20 +800,32 @@
           <t>Pedido 1</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
+        <is>
+          <t>LEG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Pedido 1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
         <is>
           <t>LEG</t>
         </is>

--- a/Material_ventas.xlsx
+++ b/Material_ventas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,20 +504,32 @@
           <t>Pedido 1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
+        <is>
+          <t>LEG</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pedido 1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
         <is>
           <t>LEG</t>
         </is>

--- a/Material_ventas.xlsx
+++ b/Material_ventas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,20 +516,32 @@
           <t>Pedido 1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
+        <is>
+          <t>LEG</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pedido 1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
         <is>
           <t>LEG</t>
         </is>

--- a/Material_ventas.xlsx
+++ b/Material_ventas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,15 +504,6 @@
           <t>Pedido 1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
           <t>BATERÍA LITIO SIGEN ENERGY SIGENSTOR 8,0KW</t>
@@ -521,9 +512,38 @@
       <c r="L2" t="n">
         <v>1</v>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
+        <is>
+          <t>LEG</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pedido 1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>BATERÍA LITIO SIGEN ENERGY SIGENSTOR 8,0KW</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
         <is>
           <t>LEG</t>
         </is>

--- a/Material_ventas.xlsx
+++ b/Material_ventas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,8 +504,6 @@
           <t>Pedido 1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>Bomba de calor acs 200l Sin serpentín</t>
@@ -521,8 +519,6 @@
           <t xml:space="preserve"> + 1</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>Inversor híbrido monofásico SUN-6k-SG05LP1-EU</t>
@@ -543,9 +539,60 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
+        <is>
+          <t>LEG</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pedido 1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Bomba de calor acs 200l Sin serpentín</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1, Estaciones de recarga rápida compactos Circutor RAPTION 50 EVO CCS2 T2S32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> + 1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Inversor híbrido monofásico SUN-6k-SG05LP1-EU</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>BATERÍA LITIO SIGEN ENERGY SIGENSTOR 8,0KW</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
         <is>
           <t>LEG</t>
         </is>

--- a/Material_ventas.xlsx
+++ b/Material_ventas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,8 +551,6 @@
           <t>Pedido 1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>Bomba de calor acs 200l Sin serpentín</t>
@@ -568,8 +566,6 @@
           <t xml:space="preserve"> + 1</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>Inversor híbrido monofásico SUN-6k-SG05LP1-EU</t>
@@ -590,9 +586,60 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
+        <is>
+          <t>LEG</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pedido 1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Bomba de calor acs 200l Sin serpentín</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1, Estaciones de recarga rápida compactos Circutor RAPTION 50 EVO CCS2 T2S32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> + 1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Inversor híbrido monofásico SUN-6k-SG05LP1-EU</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>BATERÍA LITIO SIGEN ENERGY SIGENSTOR 8,0KW</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
         <is>
           <t>LEG</t>
         </is>

--- a/Material_ventas.xlsx
+++ b/Material_ventas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,8 +598,6 @@
           <t>Pedido 1</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>Bomba de calor acs 200l Sin serpentín</t>
@@ -615,8 +613,6 @@
           <t xml:space="preserve"> + 1</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>Inversor híbrido monofásico SUN-6k-SG05LP1-EU</t>
@@ -637,9 +633,60 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
+        <is>
+          <t>LEG</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pedido 1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Bomba de calor acs 200l Sin serpentín</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1, Estaciones de recarga rápida compactos Circutor RAPTION 50 EVO CCS2 T2S32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> + 1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Inversor híbrido monofásico SUN-6k-SG05LP1-EU</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>BATERÍA LITIO SIGEN ENERGY SIGENSTOR 8,0KW</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
         <is>
           <t>LEG</t>
         </is>
